--- a/multi_capture_example.xlsx
+++ b/multi_capture_example.xlsx
@@ -15,15 +15,12 @@
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="parameters" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>admin</t>
   </si>
@@ -70,13 +67,19 @@
     <t>self</t>
   </si>
   <si>
-    <t>Row 1 is ignored</t>
-  </si>
-  <si>
-    <t>Row 2 must be the headers</t>
-  </si>
-  <si>
-    <t>Row 3 must be the first row of input data</t>
+    <t>Row 1 must be the header</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>switch_1</t>
+  </si>
+  <si>
+    <t>switch_2</t>
+  </si>
+  <si>
+    <t>The name column must contain the name of the file only. The folder name will be prepended. ".json" is automatically appended if not specified.</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -530,81 +533,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -650,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -668,27 +596,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -745,29 +654,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Help"/>
-      <sheetName val="Switch_x"/>
-      <sheetName val="CLI_Bind"/>
-      <sheetName val="Slot 0"/>
-      <sheetName val="lists"/>
-      <sheetName val="VC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1033,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1061,7 +947,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1104,22 +990,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1130,19 +1007,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1151,12 +1029,15 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1165,22 +1046,28 @@
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/multi_capture_example.xlsx
+++ b/multi_capture_example.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc404225\Documents\Broadcom\Scripting\FOS_Automation\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack_\Documents\cs\scripts\brocade-rest-api-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7A910-B1A3-4E8B-ACCF-012ACEEA4A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16570" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="1410" windowWidth="27165" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="parameters" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,9 +84,6 @@
     <t>Row 1 must be the header</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>switch_1</t>
   </si>
   <si>
@@ -80,12 +91,15 @@
   </si>
   <si>
     <t>The name column must contain the name of the file only. The folder name will be prepended. ".json" is automatically appended if not specified.</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -918,26 +932,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="75.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -945,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
@@ -954,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -963,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -972,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -981,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -990,13 +1004,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1006,20 +1020,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="1" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1033,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1050,10 +1064,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
